--- a/images.xlsx
+++ b/images.xlsx
@@ -151,6 +151,31 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>11</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
